--- a/DataBaseDump.xlsx
+++ b/DataBaseDump.xlsx
@@ -123,12 +123,6 @@
     <t>user_name</t>
   </si>
   <si>
-    <t>style_link</t>
-  </si>
-  <si>
-    <t>user_position</t>
-  </si>
-  <si>
     <t>user_phone</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
   </si>
   <si>
     <t>instagram_link</t>
+  </si>
+  <si>
+    <t>avatar</t>
+  </si>
+  <si>
+    <t>user_job</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -557,34 +557,34 @@
         <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="60" customHeight="1">
